--- a/src/工作簿7.xlsx
+++ b/src/工作簿7.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python\statistical\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3304,14 +3309,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3362,348 +3361,31 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3750,296 +3432,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4054,7 +3494,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4063,76 +3503,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="64" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="63" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="66" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="70" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="67" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="65" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4141,58 +3581,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="71" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="70" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4204,97 +3644,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="常规 12" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="常规 8" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="常规 16" xfId="35"/>
-    <cellStyle name="常规 21" xfId="36"/>
-    <cellStyle name="适中" xfId="37" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="56"/>
-    <cellStyle name="常规 2" xfId="57"/>
-    <cellStyle name="常规 3" xfId="58"/>
-    <cellStyle name="常规_Sheet1" xfId="59"/>
-    <cellStyle name="常规 5" xfId="60"/>
-    <cellStyle name="常规 22" xfId="61"/>
-    <cellStyle name="常规 17" xfId="62"/>
-    <cellStyle name="常规 7" xfId="63"/>
-    <cellStyle name="常规 11" xfId="64"/>
-    <cellStyle name="常规 24" xfId="65"/>
-    <cellStyle name="常规 19" xfId="66"/>
-    <cellStyle name="常规 23" xfId="67"/>
-    <cellStyle name="常规 18" xfId="68"/>
-    <cellStyle name="常规 9" xfId="69"/>
-    <cellStyle name="常规 20" xfId="70"/>
-    <cellStyle name="常规 13" xfId="71"/>
+    <cellStyle name="常规 10" xfId="7"/>
+    <cellStyle name="常规 11" xfId="16"/>
+    <cellStyle name="常规 12" xfId="2"/>
+    <cellStyle name="常规 13" xfId="23"/>
+    <cellStyle name="常规 16" xfId="4"/>
+    <cellStyle name="常规 17" xfId="14"/>
+    <cellStyle name="常规 18" xfId="20"/>
+    <cellStyle name="常规 19" xfId="18"/>
+    <cellStyle name="常规 2" xfId="9"/>
+    <cellStyle name="常规 2 2" xfId="6"/>
+    <cellStyle name="常规 20" xfId="22"/>
+    <cellStyle name="常规 21" xfId="5"/>
+    <cellStyle name="常规 22" xfId="13"/>
+    <cellStyle name="常规 23" xfId="19"/>
+    <cellStyle name="常规 24" xfId="17"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="常规 4" xfId="8"/>
+    <cellStyle name="常规 5" xfId="12"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 7" xfId="15"/>
+    <cellStyle name="常规 8" xfId="3"/>
+    <cellStyle name="常规 9" xfId="21"/>
+    <cellStyle name="常规_Sheet1" xfId="11"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4552,21 +3948,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4640,7 +4039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4673,24 +4072,14 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
       <c r="S2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
       <c r="X2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4723,26 +4112,17 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
       <c r="X3" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="4" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4775,28 +4155,20 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="2"/>
       <c r="S4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
       <c r="X4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="5" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4829,28 +4201,20 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="2"/>
       <c r="S5" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
       <c r="X5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="6" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4883,26 +4247,17 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
       <c r="S6" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="2"/>
       <c r="U6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
       <c r="X6" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4935,26 +4290,17 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
       <c r="S7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
       <c r="X7" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4987,28 +4333,20 @@
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R8" s="2"/>
       <c r="S8" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
       <c r="X8" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5038,27 +4376,19 @@
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="2"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
       <c r="S9" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="2"/>
       <c r="U9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
       <c r="X9" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="10" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5088,29 +4418,22 @@
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="2"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="2"/>
       <c r="S10" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="T10" s="2"/>
       <c r="U10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
       <c r="X10" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="11" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5140,27 +4463,19 @@
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="2"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
       <c r="S11" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="2"/>
       <c r="U11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
       <c r="X11" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="12" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5190,27 +4505,19 @@
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="2"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
       <c r="S12" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="2"/>
       <c r="U12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
       <c r="X12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="13" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5240,27 +4547,19 @@
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="2"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
       <c r="S13" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="2"/>
       <c r="U13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
       <c r="X13" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="14" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5292,29 +4591,22 @@
         <v>109</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="2"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R14" s="2"/>
       <c r="S14" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="2"/>
       <c r="U14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
       <c r="X14" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="15" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5346,27 +4638,19 @@
         <v>115</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="2"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
       <c r="S15" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="2"/>
       <c r="U15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
       <c r="X15" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="16" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5396,27 +4680,19 @@
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="2"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
       <c r="S16" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="T16" s="2"/>
       <c r="U16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
       <c r="X16" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="17" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5448,27 +4724,19 @@
         <v>124</v>
       </c>
       <c r="K17" s="56"/>
-      <c r="L17" s="2"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
       <c r="S17" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="T17" s="2"/>
       <c r="U17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
       <c r="X17" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="18" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5500,27 +4768,19 @@
         <v>130</v>
       </c>
       <c r="K18" s="56"/>
-      <c r="L18" s="2"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
       <c r="S18" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="T18" s="2"/>
       <c r="U18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
       <c r="X18" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="19" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5552,27 +4812,19 @@
         <v>31139</v>
       </c>
       <c r="K19" s="56"/>
-      <c r="L19" s="2"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="2"/>
       <c r="S19" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
       <c r="X19" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="20" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5605,26 +4857,17 @@
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="2"/>
       <c r="S20" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
       <c r="X20" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="21" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5657,30 +4900,23 @@
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R21" s="2"/>
       <c r="S21" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="T21" s="2"/>
       <c r="U21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
       <c r="X21" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="22" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5713,26 +4949,17 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
       <c r="S22" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="T22" s="2"/>
       <c r="U22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
       <c r="X22" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="23" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5765,26 +4992,17 @@
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
       <c r="S23" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="T23" s="2"/>
       <c r="U23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
       <c r="X23" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="24" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5817,28 +5035,20 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
       <c r="Q24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R24" s="2"/>
       <c r="S24" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="T24" s="2"/>
       <c r="U24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
       <c r="X24" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="25" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5869,26 +5079,17 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
       <c r="S25" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="T25" s="2"/>
       <c r="U25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
       <c r="X25" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="26" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5919,26 +5120,17 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
       <c r="S26" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
       <c r="X26" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="27" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5969,26 +5161,17 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
       <c r="S27" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="T27" s="2"/>
       <c r="U27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
       <c r="X27" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="28" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6019,26 +5202,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
       <c r="S28" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="T28" s="2"/>
       <c r="U28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
       <c r="X28" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="29" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6069,24 +5243,14 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
       <c r="S29" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
       <c r="X29" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="30" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6117,26 +5281,17 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R30" s="2"/>
       <c r="S30" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
       <c r="X30" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="31" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6167,26 +5322,17 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="2"/>
       <c r="S31" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
       <c r="X31" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="32" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6219,28 +5365,20 @@
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R32" s="2"/>
       <c r="S32" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="T32" s="2"/>
       <c r="U32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
       <c r="X32" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="33" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6273,43 +5411,33 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
       <c r="S33" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="T33" s="2"/>
       <c r="U33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
       <c r="X33" s="6" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6383,7 +5511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6416,12 +5544,6 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
       <c r="S2" s="55" t="s">
         <v>215</v>
       </c>
@@ -6431,12 +5553,11 @@
       <c r="U2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="2"/>
       <c r="W2" s="48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6469,27 +5590,20 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="55" t="s">
         <v>222</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
       <c r="W3" s="48" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="4" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6522,14 +5636,9 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="2"/>
       <c r="S4" s="55" t="s">
         <v>228</v>
       </c>
@@ -6539,12 +5648,11 @@
       <c r="U4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="2"/>
       <c r="W4" s="48" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="5" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6577,14 +5685,9 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="2"/>
       <c r="S5" s="55" t="s">
         <v>119</v>
       </c>
@@ -6594,12 +5697,11 @@
       <c r="U5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V5" s="2"/>
       <c r="W5" s="48" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="6" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6632,16 +5734,12 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="2"/>
       <c r="S6" s="55" t="s">
         <v>110</v>
       </c>
@@ -6651,12 +5749,11 @@
       <c r="U6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="2"/>
       <c r="W6" s="48" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6689,14 +5786,9 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="2"/>
       <c r="S7" s="55" t="s">
         <v>248</v>
       </c>
@@ -6706,12 +5798,11 @@
       <c r="U7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="2"/>
       <c r="W7" s="48" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6744,27 +5835,20 @@
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="2"/>
       <c r="S8" s="55" t="s">
         <v>100</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
       <c r="W8" s="48" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6797,27 +5881,20 @@
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="2"/>
       <c r="S9" s="55" t="s">
         <v>110</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
       <c r="W9" s="48" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="10" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6850,27 +5927,20 @@
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
       <c r="S10" s="55" t="s">
         <v>131</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
       <c r="W10" s="48" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="11" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6903,25 +5973,17 @@
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
       <c r="S11" s="55" t="s">
         <v>100</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
       <c r="W11" s="48" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="12" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6954,27 +6016,20 @@
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R12" s="2"/>
       <c r="S12" s="55" t="s">
         <v>100</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
       <c r="W12" s="48" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="13" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -7007,14 +6062,9 @@
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="2"/>
       <c r="S13" s="55" t="s">
         <v>116</v>
       </c>
@@ -7024,12 +6074,11 @@
       <c r="U13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V13" s="2"/>
       <c r="W13" s="48" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="14" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -7060,14 +6109,9 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R14" s="2"/>
       <c r="S14" s="55" t="s">
         <v>137</v>
       </c>
@@ -7077,12 +6121,11 @@
       <c r="U14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="2"/>
       <c r="W14" s="48" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="15" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -7113,14 +6156,9 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="2"/>
       <c r="S15" s="55" t="s">
         <v>296</v>
       </c>
@@ -7130,12 +6168,11 @@
       <c r="U15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V15" s="2"/>
       <c r="W15" s="48" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="16" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -7166,25 +6203,17 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
       <c r="S16" s="55" t="s">
         <v>196</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
       <c r="W16" s="48" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="17" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -7215,12 +6244,6 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
       <c r="S17" s="55" t="s">
         <v>215</v>
       </c>
@@ -7230,12 +6253,11 @@
       <c r="U17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V17" s="2"/>
       <c r="W17" s="48" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="18" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -7266,14 +6288,9 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
       <c r="S18" s="55" t="s">
         <v>311</v>
       </c>
@@ -7283,12 +6300,11 @@
       <c r="U18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="2"/>
       <c r="W18" s="48" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="19" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -7319,14 +6335,9 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="2"/>
       <c r="S19" s="55" t="s">
         <v>203</v>
       </c>
@@ -7336,12 +6347,11 @@
       <c r="U19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V19" s="2"/>
       <c r="W19" s="48" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="20" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -7372,14 +6382,9 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="2"/>
       <c r="S20" s="55" t="s">
         <v>320</v>
       </c>
@@ -7389,12 +6394,11 @@
       <c r="U20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V20" s="2"/>
       <c r="W20" s="48" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="21" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -7425,27 +6429,20 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
       <c r="Q21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R21" s="2"/>
       <c r="S21" s="55" t="s">
         <v>119</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
       <c r="W21" s="48" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="22" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -7476,27 +6473,20 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="2"/>
       <c r="S22" s="55" t="s">
         <v>100</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
       <c r="W22" s="48" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="23" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -7527,29 +6517,23 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="2"/>
       <c r="S23" s="55" t="s">
         <v>337</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
       <c r="W23" s="48" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="24" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -7580,25 +6564,17 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
       <c r="S24" s="55" t="s">
         <v>342</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
       <c r="W24" s="48" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="25" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -7629,25 +6605,17 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
       <c r="T25" s="6" t="s">
         <v>349</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V25" s="2"/>
       <c r="W25" s="48" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="26" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -7678,27 +6646,20 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
       <c r="T26" s="6" t="s">
         <v>355</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V26" s="2"/>
       <c r="W26" s="48" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="27" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -7729,27 +6690,20 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
       <c r="T27" s="6" t="s">
         <v>361</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V27" s="2"/>
       <c r="W27" s="48" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="28" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -7780,25 +6734,17 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
       <c r="Q28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
       <c r="T28" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
       <c r="W28" s="48" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="29" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -7829,25 +6775,17 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
       <c r="Q29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
       <c r="T29" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
       <c r="W29" s="48" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="30" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -7878,23 +6816,14 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
       <c r="T30" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
       <c r="W30" s="48" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="31" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -7925,25 +6854,17 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
       <c r="T31" s="6" t="s">
         <v>383</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V31" s="2"/>
       <c r="W31" s="48" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="32" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -7974,27 +6895,20 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
       <c r="T32" s="6" t="s">
         <v>388</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V32" s="2"/>
       <c r="W32" s="48" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="33" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8025,27 +6939,20 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
       <c r="Q33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
       <c r="T33" s="6" t="s">
         <v>394</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="2"/>
       <c r="W33" s="48" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="34" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -8076,27 +6983,20 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
         <v>150</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
       <c r="T34" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
       <c r="W34" s="48" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="35" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -8127,23 +7027,14 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
       <c r="T35" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
       <c r="W35" s="48" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -8174,23 +7065,14 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
       <c r="T36" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
       <c r="W36" s="48" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="37" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -8223,23 +7105,14 @@
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
       <c r="T37" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
       <c r="W37" s="48" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="38" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -8272,23 +7145,14 @@
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
       <c r="T38" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
       <c r="W38" s="48" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="39" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -8321,23 +7185,14 @@
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
       <c r="T39" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
       <c r="W39" s="48" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="40" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -8370,25 +7225,17 @@
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
       <c r="T40" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
       <c r="W40" s="48" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="41" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -8421,23 +7268,14 @@
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
       <c r="T41" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
       <c r="W41" s="48" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:23">
+    <row r="42" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -8470,40 +7308,30 @@
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
       <c r="T42" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
       <c r="W42" s="48" t="s">
         <v>445</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X160"/>
   <sheetViews>
     <sheetView topLeftCell="A152" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:24">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8577,7 +7405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -8610,18 +7438,11 @@
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
       <c r="T2" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -8649,19 +7470,11 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
       <c r="T3" s="6" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="4" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -8689,14 +7502,6 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
       <c r="T4" s="6" t="s">
         <v>458</v>
       </c>
@@ -8704,7 +7509,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="5" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8732,14 +7537,6 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
       <c r="T5" s="6" t="s">
         <v>461</v>
       </c>
@@ -8747,7 +7544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="6" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -8775,16 +7572,9 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
       <c r="T6" s="6" t="s">
         <v>464</v>
       </c>
@@ -8792,7 +7582,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -8822,19 +7612,11 @@
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
       <c r="T7" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -8864,14 +7646,6 @@
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
       <c r="T8" s="6" t="s">
         <v>473</v>
       </c>
@@ -8879,7 +7653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="9" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -8909,14 +7683,6 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
       <c r="T9" s="6" t="s">
         <v>478</v>
       </c>
@@ -8924,7 +7690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="10" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -8954,16 +7720,9 @@
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
       <c r="T10" s="6" t="s">
         <v>483</v>
       </c>
@@ -8971,7 +7730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="11" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9001,14 +7760,6 @@
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
       <c r="T11" s="6" t="s">
         <v>487</v>
       </c>
@@ -9016,7 +7767,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="12" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -9048,14 +7799,6 @@
         <v>491</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
       <c r="T12" s="6" t="s">
         <v>492</v>
       </c>
@@ -9063,7 +7806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="13" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -9095,14 +7838,6 @@
         <v>496</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
       <c r="T13" s="6" t="s">
         <v>497</v>
       </c>
@@ -9110,7 +7845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="14" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9139,15 +7874,9 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
       <c r="T14" s="6" t="s">
         <v>500</v>
       </c>
@@ -9155,7 +7884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="15" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9184,13 +7913,6 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
       <c r="T15" s="6" t="s">
         <v>504</v>
       </c>
@@ -9198,7 +7920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="16" spans="1:24" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9227,18 +7949,11 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
       <c r="T16" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -9267,18 +7982,11 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
       <c r="T17" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -9307,20 +8015,14 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
       <c r="T18" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -9349,18 +8051,11 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
       <c r="T19" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -9389,18 +8084,11 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
       <c r="T20" s="6" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9431,15 +8119,8 @@
       <c r="J21" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
       <c r="T21" s="6" t="s">
         <v>525</v>
       </c>
@@ -9447,7 +8128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -9478,15 +8159,8 @@
       <c r="J22" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
       <c r="T22" s="6" t="s">
         <v>530</v>
       </c>
@@ -9494,7 +8168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -9525,15 +8199,8 @@
       <c r="J23" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
       <c r="T23" s="6" t="s">
         <v>535</v>
       </c>
@@ -9541,7 +8208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -9572,20 +8239,13 @@
       <c r="J24" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
       <c r="T24" s="6" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9612,22 +8272,16 @@
         <v>30</v>
       </c>
       <c r="J25" s="19"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
       <c r="T25" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9654,15 +8308,8 @@
         <v>30</v>
       </c>
       <c r="J26" s="19"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
       <c r="T26" s="6" t="s">
         <v>547</v>
       </c>
@@ -9670,7 +8317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9699,15 +8346,8 @@
         <v>30</v>
       </c>
       <c r="J27" s="20"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
       <c r="T27" s="6" t="s">
         <v>551</v>
       </c>
@@ -9715,7 +8355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="28" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9744,20 +8384,13 @@
         <v>30</v>
       </c>
       <c r="J28" s="20"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
       <c r="T28" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="29" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9786,20 +8419,13 @@
         <v>30</v>
       </c>
       <c r="J29" s="20"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
       <c r="T29" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="30" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9828,20 +8454,13 @@
         <v>30</v>
       </c>
       <c r="J30" s="21"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
       <c r="T30" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="31" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9870,20 +8489,13 @@
         <v>30</v>
       </c>
       <c r="J31" s="21"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
       <c r="T31" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -9914,20 +8526,13 @@
       <c r="J32" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
       <c r="T32" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9958,22 +8563,16 @@
       <c r="J33" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
       <c r="T33" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -10004,20 +8603,13 @@
       <c r="J34" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
       <c r="T34" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -10048,20 +8640,13 @@
       <c r="J35" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
       <c r="T35" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -10090,22 +8675,17 @@
         <v>30</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
       <c r="T36" s="6" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -10134,20 +8714,14 @@
         <v>30</v>
       </c>
       <c r="J37" s="7"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
       <c r="T37" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10176,22 +8750,17 @@
         <v>30</v>
       </c>
       <c r="J38" s="7"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
       <c r="T38" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10220,20 +8789,14 @@
         <v>30</v>
       </c>
       <c r="J39" s="7"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
       <c r="T39" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -10262,20 +8825,14 @@
         <v>30</v>
       </c>
       <c r="J40" s="7"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
       <c r="T40" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -10304,20 +8861,13 @@
         <v>39</v>
       </c>
       <c r="J41" s="44"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
       <c r="T41" s="6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -10346,22 +8896,16 @@
         <v>30</v>
       </c>
       <c r="J42" s="44"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="2"/>
       <c r="P42" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
       <c r="T42" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10390,20 +8934,13 @@
         <v>30</v>
       </c>
       <c r="J43" s="44"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
       <c r="T43" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -10432,20 +8969,13 @@
         <v>30</v>
       </c>
       <c r="J44" s="44"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
       <c r="T44" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -10476,20 +9006,13 @@
       <c r="J45" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
       <c r="T45" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="46" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -10520,20 +9043,13 @@
       <c r="J46" s="44" t="s">
         <v>631</v>
       </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
       <c r="T46" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="47" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -10564,20 +9080,13 @@
       <c r="J47" s="45" t="s">
         <v>636</v>
       </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
       <c r="T47" s="6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="48" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -10608,20 +9117,13 @@
       <c r="J48" s="45" t="s">
         <v>636</v>
       </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
       <c r="T48" s="6" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="49" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -10652,22 +9154,16 @@
       <c r="J49" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="2"/>
       <c r="P49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
       <c r="T49" s="6" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="50" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10696,20 +9192,13 @@
         <v>30</v>
       </c>
       <c r="J50" s="47"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
       <c r="T50" s="6" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="51" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10740,20 +9229,13 @@
       <c r="J51" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
       <c r="T51" s="6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="52" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10784,20 +9266,13 @@
       <c r="J52" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
       <c r="T52" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="53" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10826,20 +9301,13 @@
         <v>655</v>
       </c>
       <c r="J53" s="29"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
       <c r="T53" s="6" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="54" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10870,20 +9338,13 @@
       <c r="J54" s="29" t="s">
         <v>673</v>
       </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
       <c r="T54" s="6" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="55" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10914,22 +9375,16 @@
       <c r="J55" s="29" t="s">
         <v>678</v>
       </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="2"/>
       <c r="P55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
       <c r="T55" s="6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="56" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10960,15 +9415,8 @@
       <c r="J56" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
       <c r="T56" s="6" t="s">
         <v>683</v>
       </c>
@@ -10976,7 +9424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="57" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -11007,15 +9455,8 @@
       <c r="J57" s="29" t="s">
         <v>686</v>
       </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
       <c r="T57" s="6" t="s">
         <v>687</v>
       </c>
@@ -11023,7 +9464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="58" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -11054,15 +9495,8 @@
       <c r="J58" s="29" t="s">
         <v>690</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
       <c r="T58" s="6" t="s">
         <v>691</v>
       </c>
@@ -11070,7 +9504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="59" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -11101,15 +9535,8 @@
       <c r="J59" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
       <c r="T59" s="6" t="s">
         <v>695</v>
       </c>
@@ -11117,7 +9544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="60" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -11148,15 +9575,8 @@
       <c r="J60" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
       <c r="T60" s="6" t="s">
         <v>699</v>
       </c>
@@ -11164,7 +9584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="61" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -11195,15 +9615,8 @@
       <c r="J61" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
       <c r="T61" s="6" t="s">
         <v>702</v>
       </c>
@@ -11211,7 +9624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="62" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -11242,17 +9655,11 @@
       <c r="J62" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="2"/>
       <c r="P62" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
       <c r="T62" s="6" t="s">
         <v>706</v>
       </c>
@@ -11260,7 +9667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="63" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -11291,15 +9698,8 @@
       <c r="J63" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
       <c r="T63" s="6" t="s">
         <v>710</v>
       </c>
@@ -11307,7 +9707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="64" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -11340,13 +9740,6 @@
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
       <c r="T64" s="6" t="s">
         <v>715</v>
       </c>
@@ -11354,7 +9747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="65" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -11387,13 +9780,6 @@
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
       <c r="T65" s="6" t="s">
         <v>719</v>
       </c>
@@ -11401,7 +9787,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="66" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -11434,15 +9820,9 @@
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
       <c r="P66" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
       <c r="T66" s="6" t="s">
         <v>723</v>
       </c>
@@ -11450,7 +9830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="67" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -11483,15 +9863,9 @@
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
       <c r="P67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
       <c r="T67" s="6" t="s">
         <v>727</v>
       </c>
@@ -11499,7 +9873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="68" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -11532,13 +9906,6 @@
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
       <c r="T68" s="6" t="s">
         <v>732</v>
       </c>
@@ -11546,7 +9913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="69" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -11579,13 +9946,6 @@
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
       <c r="T69" s="6" t="s">
         <v>736</v>
       </c>
@@ -11593,7 +9953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="70" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -11626,13 +9986,6 @@
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
       <c r="T70" s="6" t="s">
         <v>741</v>
       </c>
@@ -11640,7 +9993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="71" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -11673,18 +10026,11 @@
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
       <c r="T71" s="6" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="72" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -11717,18 +10063,11 @@
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
       <c r="T72" s="6" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="73" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -11761,13 +10100,6 @@
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
       <c r="T73" s="6" t="s">
         <v>750</v>
       </c>
@@ -11775,7 +10107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="74" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -11804,13 +10136,6 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
       <c r="T74" s="6" t="s">
         <v>753</v>
       </c>
@@ -11818,7 +10143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="75" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -11847,15 +10172,9 @@
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
       <c r="P75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
       <c r="T75" s="6" t="s">
         <v>756</v>
       </c>
@@ -11863,7 +10182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="76" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -11894,13 +10213,6 @@
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
       <c r="T76" s="6" t="s">
         <v>762</v>
       </c>
@@ -11908,7 +10220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="77" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -11939,13 +10251,6 @@
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
       <c r="T77" s="6" t="s">
         <v>765</v>
       </c>
@@ -11953,7 +10258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="78" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -11980,15 +10285,9 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
       <c r="P78" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
       <c r="T78" s="6" t="s">
         <v>770</v>
       </c>
@@ -11996,7 +10295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="79" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -12023,13 +10322,6 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
       <c r="T79" s="6" t="s">
         <v>774</v>
       </c>
@@ -12037,7 +10329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="80" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -12066,15 +10358,9 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
       <c r="P80" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
       <c r="T80" s="6" t="s">
         <v>777</v>
       </c>
@@ -12082,7 +10368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="81" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -12111,18 +10397,11 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
       <c r="T81" s="6" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="82" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -12151,18 +10430,11 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
       <c r="T82" s="6" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="83" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -12191,18 +10463,11 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
       <c r="T83" s="6" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="84" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -12231,15 +10496,9 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
       <c r="P84" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
       <c r="T84" s="6" t="s">
         <v>786</v>
       </c>
@@ -12247,7 +10506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="85" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -12276,13 +10535,6 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
       <c r="T85" s="6" t="s">
         <v>789</v>
       </c>
@@ -12290,7 +10542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="86" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -12319,13 +10571,6 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
       <c r="T86" s="6" t="s">
         <v>792</v>
       </c>
@@ -12333,7 +10578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="87" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -12362,18 +10607,11 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
       <c r="T87" s="6" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="88" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -12402,13 +10640,6 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
       <c r="T88" s="6" t="s">
         <v>797</v>
       </c>
@@ -12416,7 +10647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="89" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -12445,13 +10676,6 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
       <c r="T89" s="6" t="s">
         <v>800</v>
       </c>
@@ -12459,7 +10683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="90" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -12488,13 +10712,6 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
       <c r="T90" s="6" t="s">
         <v>803</v>
       </c>
@@ -12502,7 +10719,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="91" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -12531,15 +10748,9 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
       <c r="P91" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
       <c r="T91" s="6" t="s">
         <v>806</v>
       </c>
@@ -12547,7 +10758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="92" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -12576,20 +10787,13 @@
         <v>30</v>
       </c>
       <c r="J92" s="8"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
       <c r="T92" s="6" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="93" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -12618,20 +10822,13 @@
         <v>30</v>
       </c>
       <c r="J93" s="8"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
       <c r="T93" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="94" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -12660,20 +10857,13 @@
         <v>30</v>
       </c>
       <c r="J94" s="8"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
       <c r="T94" s="6" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="95" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -12704,20 +10894,13 @@
       <c r="J95" s="49" t="s">
         <v>817</v>
       </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
       <c r="T95" s="6" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="96" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -12748,20 +10931,13 @@
       <c r="J96" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
       <c r="T96" s="6" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="97" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -12794,15 +10970,9 @@
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
       <c r="P97" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
       <c r="T97" s="6" t="s">
         <v>826</v>
       </c>
@@ -12810,7 +10980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="98" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -12839,15 +11009,8 @@
         <v>30</v>
       </c>
       <c r="J98" s="5"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
       <c r="T98" s="6" t="s">
         <v>829</v>
       </c>
@@ -12855,7 +11018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="99" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -12884,15 +11047,8 @@
         <v>30</v>
       </c>
       <c r="J99" s="5"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
       <c r="T99" s="6" t="s">
         <v>831</v>
       </c>
@@ -12900,7 +11056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="100" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -12929,20 +11085,13 @@
         <v>30</v>
       </c>
       <c r="J100" s="5"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
       <c r="T100" s="6" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="101" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -12971,15 +11120,8 @@
         <v>30</v>
       </c>
       <c r="J101" s="5"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
       <c r="T101" s="6" t="s">
         <v>835</v>
       </c>
@@ -12987,7 +11129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="102" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -13016,15 +11158,8 @@
         <v>30</v>
       </c>
       <c r="J102" s="5"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
       <c r="T102" s="6" t="s">
         <v>837</v>
       </c>
@@ -13032,7 +11167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="103" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -13061,15 +11196,8 @@
         <v>39</v>
       </c>
       <c r="J103" s="5"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
       <c r="T103" s="6" t="s">
         <v>839</v>
       </c>
@@ -13077,7 +11205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="104" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -13106,17 +11234,11 @@
         <v>30</v>
       </c>
       <c r="J104" s="5"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
       <c r="T104" s="6" t="s">
         <v>841</v>
       </c>
@@ -13124,7 +11246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="105" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -13153,20 +11275,13 @@
         <v>30</v>
       </c>
       <c r="J105" s="5"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
       <c r="T105" s="6" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="106" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -13195,20 +11310,13 @@
         <v>39</v>
       </c>
       <c r="J106" s="5"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
       <c r="T106" s="6" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="107" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -13237,20 +11345,13 @@
         <v>30</v>
       </c>
       <c r="J107" s="5"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
       <c r="T107" s="6" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="108" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -13279,22 +11380,16 @@
         <v>30</v>
       </c>
       <c r="J108" s="5"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
       <c r="T108" s="6" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="109" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -13323,17 +11418,11 @@
         <v>30</v>
       </c>
       <c r="J109" s="5"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
       <c r="T109" s="6" t="s">
         <v>862</v>
       </c>
@@ -13341,7 +11430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="110" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -13370,15 +11459,8 @@
         <v>30</v>
       </c>
       <c r="J110" s="5"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
       <c r="T110" s="6" t="s">
         <v>865</v>
       </c>
@@ -13386,7 +11468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="111" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -13415,15 +11497,8 @@
         <v>30</v>
       </c>
       <c r="J111" s="5"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
       <c r="T111" s="6" t="s">
         <v>869</v>
       </c>
@@ -13431,7 +11506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="112" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -13462,22 +11537,16 @@
       <c r="J112" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
       <c r="T112" s="6" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="113" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -13508,20 +11577,13 @@
       <c r="J113" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
       <c r="T113" s="6" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="114" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -13552,20 +11614,13 @@
       <c r="J114" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
       <c r="T114" s="6" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="115" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -13594,15 +11649,8 @@
         <v>30</v>
       </c>
       <c r="J115" s="5"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
       <c r="T115" s="6" t="s">
         <v>885</v>
       </c>
@@ -13610,7 +11658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="116" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -13639,15 +11687,8 @@
         <v>30</v>
       </c>
       <c r="J116" s="5"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
       <c r="T116" s="6" t="s">
         <v>889</v>
       </c>
@@ -13655,7 +11696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="117" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -13684,15 +11725,8 @@
         <v>30</v>
       </c>
       <c r="J117" s="5"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
       <c r="T117" s="6" t="s">
         <v>895</v>
       </c>
@@ -13700,7 +11734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="118" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -13729,20 +11763,13 @@
         <v>30</v>
       </c>
       <c r="J118" s="5"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
       <c r="T118" s="6" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="119" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -13771,20 +11798,13 @@
         <v>30</v>
       </c>
       <c r="J119" s="5"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
       <c r="T119" s="6" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="120" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -13813,22 +11833,16 @@
         <v>30</v>
       </c>
       <c r="J120" s="5"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
       <c r="T120" s="6" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="121" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -13857,20 +11871,13 @@
         <v>30</v>
       </c>
       <c r="J121" s="5"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
       <c r="T121" s="6" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="122" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -13899,20 +11906,13 @@
         <v>30</v>
       </c>
       <c r="J122" s="5"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
       <c r="T122" s="6" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="123" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -13941,22 +11941,16 @@
         <v>39</v>
       </c>
       <c r="J123" s="5"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
       <c r="T123" s="6" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="124" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -13987,20 +11981,13 @@
       <c r="J124" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
       <c r="T124" s="6" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="125" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -14030,21 +12017,15 @@
       </c>
       <c r="J125" s="34"/>
       <c r="K125" s="5"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
       <c r="O125" s="5"/>
       <c r="P125" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
       <c r="T125" s="6" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="126" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -14078,19 +12059,12 @@
       <c r="K126" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
       <c r="O126" s="5"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
       <c r="T126" s="6" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="127" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -14124,19 +12098,12 @@
       <c r="K127" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
       <c r="O127" s="5"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
       <c r="T127" s="6" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="128" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -14170,21 +12137,14 @@
       <c r="K128" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
       <c r="O128" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
       <c r="T128" s="6" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="129" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -14218,16 +12178,10 @@
       <c r="K129" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
       <c r="O129" s="5"/>
       <c r="P129" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
       <c r="T129" s="6" t="s">
         <v>948</v>
       </c>
@@ -14235,7 +12189,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="130" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -14267,14 +12221,7 @@
         <v>953</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
       <c r="O130" s="5"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
       <c r="T130" s="6" t="s">
         <v>954</v>
       </c>
@@ -14282,7 +12229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="131" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -14316,14 +12263,7 @@
       <c r="K131" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
       <c r="O131" s="5"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
       <c r="T131" s="6" t="s">
         <v>959</v>
       </c>
@@ -14331,7 +12271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="132" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -14359,19 +12299,12 @@
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
       <c r="O132" s="5"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
       <c r="T132" s="6" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="133" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -14399,14 +12332,7 @@
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
       <c r="O133" s="5"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
       <c r="T133" s="6" t="s">
         <v>967</v>
       </c>
@@ -14414,7 +12340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="134" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -14442,14 +12368,7 @@
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
       <c r="O134" s="5"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
       <c r="T134" s="6" t="s">
         <v>970</v>
       </c>
@@ -14457,7 +12376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="135" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -14485,14 +12404,7 @@
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
       <c r="O135" s="5"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
       <c r="T135" s="6" t="s">
         <v>973</v>
       </c>
@@ -14500,7 +12412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="136" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -14528,16 +12440,10 @@
       </c>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
       <c r="O136" s="5"/>
       <c r="P136" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
       <c r="T136" s="6" t="s">
         <v>976</v>
       </c>
@@ -14545,7 +12451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="137" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -14577,14 +12483,7 @@
         <v>979</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
       <c r="O137" s="5"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
       <c r="T137" s="6" t="s">
         <v>980</v>
       </c>
@@ -14592,7 +12491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="138" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -14624,14 +12523,7 @@
         <v>983</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
       <c r="O138" s="5"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
       <c r="T138" s="6" t="s">
         <v>984</v>
       </c>
@@ -14639,7 +12531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="139" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -14673,14 +12565,7 @@
       <c r="K139" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
       <c r="O139" s="5"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
       <c r="T139" s="6" t="s">
         <v>990</v>
       </c>
@@ -14688,7 +12573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="140" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -14720,14 +12605,7 @@
         <v>993</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
       <c r="O140" s="5"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
-      <c r="S140" s="2"/>
       <c r="T140" s="6" t="s">
         <v>994</v>
       </c>
@@ -14735,7 +12613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="141" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -14769,19 +12647,12 @@
       <c r="K141" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
       <c r="O141" s="5"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
       <c r="T141" s="6" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="142" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -14814,20 +12685,14 @@
       </c>
       <c r="K142" s="34"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
       <c r="P142" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
       <c r="T142" s="6" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="143" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -14860,18 +12725,11 @@
       </c>
       <c r="K143" s="34"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
       <c r="T143" s="6" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="144" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -14904,18 +12762,11 @@
       </c>
       <c r="K144" s="34"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
       <c r="T144" s="6" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="145" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -14950,18 +12801,11 @@
         <v>875</v>
       </c>
       <c r="L145" s="5"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
       <c r="T145" s="6" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="146" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -14994,13 +12838,6 @@
       </c>
       <c r="K146" s="34"/>
       <c r="L146" s="5"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
       <c r="T146" s="6" t="s">
         <v>1028</v>
       </c>
@@ -15008,7 +12845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="147" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -15041,13 +12878,6 @@
       </c>
       <c r="K147" s="34"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
       <c r="T147" s="6" t="s">
         <v>1033</v>
       </c>
@@ -15055,7 +12885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="148" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -15088,13 +12918,6 @@
       </c>
       <c r="K148" s="34"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
       <c r="T148" s="6" t="s">
         <v>1039</v>
       </c>
@@ -15102,7 +12925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="149" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -15135,20 +12958,14 @@
       </c>
       <c r="K149" s="34"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
       <c r="P149" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
       <c r="T149" s="6" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="150" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -15179,18 +12996,11 @@
       <c r="J150" s="34"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
       <c r="T150" s="6" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="151" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -15221,13 +13031,6 @@
       <c r="J151" s="34"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
-      <c r="S151" s="2"/>
       <c r="T151" s="6" t="s">
         <v>1051</v>
       </c>
@@ -15235,7 +13038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" ht="15" customHeight="1" spans="1:21">
+    <row r="152" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -15266,13 +13069,6 @@
       <c r="J152" s="34"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
       <c r="T152" s="6" t="s">
         <v>1055</v>
       </c>
@@ -15280,7 +13076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="153" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -15313,20 +13109,14 @@
         <v>875</v>
       </c>
       <c r="L153" s="5"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
       <c r="P153" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
       <c r="T153" s="6" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="154" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -15359,20 +13149,14 @@
       </c>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
       <c r="P154" s="52" t="s">
         <v>1063</v>
       </c>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
       <c r="T154" s="6" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="155" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -15405,20 +13189,14 @@
       </c>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
       <c r="P155" s="52" t="s">
         <v>1069</v>
       </c>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
       <c r="T155" s="6" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="156" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -15451,20 +13229,14 @@
       </c>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
       <c r="P156" s="52" t="s">
         <v>1063</v>
       </c>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
       <c r="T156" s="6" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="157" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -15497,20 +13269,14 @@
       </c>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
       <c r="P157" s="52" t="s">
         <v>1069</v>
       </c>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
       <c r="T157" s="6" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="158" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -15543,20 +13309,14 @@
       </c>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
       <c r="P158" s="53" t="s">
         <v>1063</v>
       </c>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
       <c r="T158" s="6" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="159" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -15589,20 +13349,14 @@
       </c>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
       <c r="P159" s="53" t="s">
         <v>1063</v>
       </c>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
       <c r="T159" s="6" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" ht="15" customHeight="1" spans="1:20">
+    <row r="160" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -15635,37 +13389,28 @@
       </c>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
       <c r="P160" s="53" t="s">
         <v>1063</v>
       </c>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
       <c r="T160" s="6" t="s">
         <v>1093</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>